--- a/results/outputs/res_mediate.xlsx
+++ b/results/outputs/res_mediate.xlsx
@@ -10,15 +10,13 @@
     <sheet name="cytokines_individual" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="species" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="species_individual" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="genera" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="genera_individual" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="cytokines_and_species" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="cytokines_and_species" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -87,27 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Odoribacter.spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akkermansia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alistipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacteroides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butyricimonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehalobacterium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methanobrevibacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odoribacter</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1136,7 @@
         <v>18.57</v>
       </c>
       <c r="E8" t="n">
-        <v>0.56</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1179,7 +1156,7 @@
         <v>18.54</v>
       </c>
       <c r="E9" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1199,7 +1176,7 @@
         <v>19.92</v>
       </c>
       <c r="E10" t="n">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1399,7 +1376,7 @@
         <v>17.18</v>
       </c>
       <c r="E20" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1419,7 +1396,7 @@
         <v>17.96</v>
       </c>
       <c r="E21" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1439,7 +1416,7 @@
         <v>20.3</v>
       </c>
       <c r="E22" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2147,1026 +2124,6 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.649</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17.96</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.887</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.894</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.896</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.914</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.363</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.282</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.831</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.656</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.677</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.589</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.729</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.458</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
         <v>1.81</v>
       </c>
       <c r="D2" t="n">
